--- a/TestData/ComplianceSheet-11.xlsx
+++ b/TestData/ComplianceSheet-11.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A77E1B93-6E24-41E5-AE3C-4506D01C91FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="1950" yWindow="1950" windowWidth="16410" windowHeight="11820" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6075" tabRatio="500" firstSheet="7" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -17,8 +16,8 @@
     <sheet name="Compliance Assignment" sheetId="7" r:id="rId7"/>
     <sheet name="Implementation Login" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1:I21"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -337,7 +336,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -797,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -837,7 +836,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -849,7 +848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -921,7 +920,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -933,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1000,12 +999,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1017,10 +1016,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1127,10 +1126,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1167,8 +1166,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1180,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1502,7 +1501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1576,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1616,8 +1615,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
